--- a/WinformsUI/Template/Template2022.xlsx
+++ b/WinformsUI/Template/Template2022.xlsx
@@ -1,37 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20384"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Codes\JournalVoucherAudit-v1.09\JournalVoucherAudit\WinformsUI\Template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Codes\JournalVoucherAudit-20211231\JournalVoucherAudit\WinformsUI\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5BCEB11D-BA8E-4398-A8C9-128A64FDD8FC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D1B277A4-C87A-48EF-A617-96669722FB03}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552"/>
+    <workbookView xWindow="32769" yWindow="32769" windowWidth="23229" windowHeight="12549"/>
   </bookViews>
   <sheets>
     <sheet name="report" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="36">
   <si>
     <t>$[CurrentDate]</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -276,6 +265,22 @@
   </si>
   <si>
     <t>财务入账月份</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>制表</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>科目编号</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>$[Originator]</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>$[SubjectCode]</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -283,7 +288,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -339,13 +344,6 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -405,6 +403,19 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -413,19 +424,6 @@
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -434,7 +432,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -471,62 +469,68 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="4" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -842,112 +846,124 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="C9" sqref="C9:G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.3" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.45" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="11.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9.546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="29.796875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="10.84765625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="15.796875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.546875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="25.09765625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="13.796875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="17.8984375" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="8.796875" style="1"/>
+    <col min="2" max="2" width="9.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="29.85546875" style="1" customWidth="1"/>
+    <col min="4" max="6" width="10.85546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="15.85546875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="12.5703125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="25.0703125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.85546875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="17.92578125" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="20.100000000000001" x14ac:dyDescent="0.5">
-      <c r="A1" s="24" t="s">
+    <row r="1" spans="1:11" ht="20.149999999999999" x14ac:dyDescent="0.35">
+      <c r="A1" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
     </row>
-    <row r="2" spans="1:9" ht="18.3" x14ac:dyDescent="0.5">
-      <c r="A2" s="25" t="s">
+    <row r="2" spans="1:11" ht="18.45" x14ac:dyDescent="0.35">
+      <c r="A2" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="28"/>
     </row>
-    <row r="3" spans="1:9" ht="18.3" x14ac:dyDescent="0.5">
-      <c r="A3" s="15" t="s">
+    <row r="3" spans="1:11" ht="18.45" x14ac:dyDescent="0.35">
+      <c r="A3" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="15"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="15"/>
+      <c r="B3" s="32"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="32"/>
+      <c r="K3" s="32"/>
     </row>
-    <row r="4" spans="1:9" ht="18.3" x14ac:dyDescent="0.5">
-      <c r="A4" s="26" t="s">
+    <row r="4" spans="1:11" ht="18.45" x14ac:dyDescent="0.35">
+      <c r="A4" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="26"/>
-      <c r="C4" s="26"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="26" t="s">
+      <c r="B4" s="29"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="G4" s="26"/>
-      <c r="H4" s="26"/>
+      <c r="I4" s="29"/>
+      <c r="J4" s="29"/>
     </row>
-    <row r="5" spans="1:9" ht="18.3" x14ac:dyDescent="0.5">
-      <c r="A5" s="27" t="s">
+    <row r="5" spans="1:11" ht="18.45" x14ac:dyDescent="0.35">
+      <c r="A5" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="27"/>
-      <c r="C5" s="27"/>
-      <c r="D5" s="16" t="s">
+      <c r="B5" s="30"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="17"/>
-      <c r="F5" s="28" t="s">
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="G5" s="28"/>
-      <c r="H5" s="16" t="s">
+      <c r="I5" s="31"/>
+      <c r="J5" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="I5" s="17"/>
+      <c r="K5" s="18"/>
     </row>
-    <row r="6" spans="1:9" ht="18.3" x14ac:dyDescent="0.5">
-      <c r="A6" s="18" t="s">
+    <row r="6" spans="1:11" ht="18.45" x14ac:dyDescent="0.35">
+      <c r="A6" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="19"/>
-      <c r="C6" s="19"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="18" t="s">
+      <c r="B6" s="21"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="22"/>
+      <c r="H6" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="G6" s="19"/>
-      <c r="H6" s="19"/>
-      <c r="I6" s="20"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="21"/>
+      <c r="K6" s="22"/>
     </row>
-    <row r="7" spans="1:9" ht="18.3" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:11" ht="18.45" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
         <v>19</v>
       </c>
@@ -960,23 +976,29 @@
       <c r="D7" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E7" s="11" t="s">
+      <c r="E7" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="G7" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="H7" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="G7" s="4" t="s">
+      <c r="I7" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="H7" s="4" t="s">
+      <c r="J7" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="I7" s="30" t="s">
+      <c r="K7" s="15" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8" s="9" t="s">
         <v>13</v>
       </c>
@@ -989,59 +1011,69 @@
       <c r="D8" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="5"/>
-      <c r="F8" s="9" t="s">
+      <c r="E8" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="G8" s="5"/>
+      <c r="H8" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="G8" s="10" t="s">
+      <c r="I8" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="H8" s="12" t="s">
+      <c r="J8" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="I8" s="29" t="s">
+      <c r="K8" s="14" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="18.3" x14ac:dyDescent="0.5">
-      <c r="A9" s="13" t="s">
+    <row r="9" spans="1:11" ht="18.45" x14ac:dyDescent="0.35">
+      <c r="A9" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="16" t="s">
+      <c r="B9" s="26"/>
+      <c r="C9" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="21"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="13" t="s">
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="G9" s="14"/>
-      <c r="H9" s="16" t="s">
+      <c r="I9" s="26"/>
+      <c r="J9" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="I9" s="17"/>
+      <c r="K9" s="18"/>
     </row>
-    <row r="10" spans="1:9" ht="18.3" x14ac:dyDescent="0.5">
-      <c r="A10" s="22" t="s">
+    <row r="10" spans="1:11" ht="18.45" x14ac:dyDescent="0.35">
+      <c r="A10" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="23"/>
-      <c r="C10" s="16" t="s">
+      <c r="B10" s="24"/>
+      <c r="C10" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="21"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="6" t="s">
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="G10" s="7"/>
-      <c r="H10" s="16" t="s">
+      <c r="I10" s="7"/>
+      <c r="J10" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="I10" s="17"/>
+      <c r="K10" s="18"/>
     </row>
-    <row r="11" spans="1:9" ht="18.3" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:11" ht="18.45" x14ac:dyDescent="0.35">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="3" t="s">
@@ -1051,30 +1083,32 @@
         <v>27</v>
       </c>
       <c r="E11" s="3"/>
-      <c r="F11" s="2"/>
+      <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="2"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A2:J2"/>
     <mergeCell ref="A4:D4"/>
-    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="H4:J4"/>
     <mergeCell ref="A5:C5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="A3:K3"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="D5:G5"/>
+    <mergeCell ref="A6:G6"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="C10:G10"/>
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="A9:B9"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="A3:I3"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="F6:I6"/>
     <mergeCell ref="H9:I9"/>
+    <mergeCell ref="J5:K5"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/WinformsUI/Template/Template2022.xlsx
+++ b/WinformsUI/Template/Template2022.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Codes\JournalVoucherAudit-v1.09\JournalVoucherAudit\WinformsUI\Template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Codes\JournalVoucherAudit-20220407\JournalVoucherAudit\WinformsUI\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5BCEB11D-BA8E-4398-A8C9-128A64FDD8FC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DE3FC9AB-57DA-4532-B289-4EFC0826AF60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552"/>
   </bookViews>
@@ -20,10 +20,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -31,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="36">
   <si>
     <t>$[CurrentDate]</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -276,6 +275,22 @@
   </si>
   <si>
     <t>财务入账月份</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>科目编号</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>$[Originator]</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>$[SubjectCode]</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>制单人</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -283,7 +298,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -339,13 +354,6 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -405,6 +413,19 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -413,19 +434,6 @@
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -434,7 +442,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -471,61 +479,70 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="4" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -842,112 +859,124 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.3" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultColWidth="8.84765625" defaultRowHeight="15.3" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="1" max="1" width="11.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9.546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="29.796875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="10.84765625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="15.796875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.546875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="25.09765625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="13.796875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="17.8984375" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="8.796875" style="1"/>
+    <col min="2" max="2" width="9.59765625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="29.84765625" style="1" customWidth="1"/>
+    <col min="4" max="6" width="10.84765625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="15.84765625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="12.59765625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="25.09765625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.84765625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="17.8984375" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="8.84765625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="20.100000000000001" x14ac:dyDescent="0.5">
-      <c r="A1" s="24" t="s">
+    <row r="1" spans="1:11" ht="20.100000000000001" x14ac:dyDescent="0.5">
+      <c r="A1" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
     </row>
-    <row r="2" spans="1:9" ht="18.3" x14ac:dyDescent="0.5">
-      <c r="A2" s="25" t="s">
+    <row r="2" spans="1:11" ht="18.3" x14ac:dyDescent="0.5">
+      <c r="A2" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
     </row>
-    <row r="3" spans="1:9" ht="18.3" x14ac:dyDescent="0.5">
-      <c r="A3" s="15" t="s">
+    <row r="3" spans="1:11" ht="18.3" x14ac:dyDescent="0.5">
+      <c r="A3" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="15"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="15"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="26"/>
+      <c r="J3" s="26"/>
+      <c r="K3" s="26"/>
     </row>
-    <row r="4" spans="1:9" ht="18.3" x14ac:dyDescent="0.5">
-      <c r="A4" s="26" t="s">
+    <row r="4" spans="1:11" ht="18.3" x14ac:dyDescent="0.5">
+      <c r="A4" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="26"/>
-      <c r="C4" s="26"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="26" t="s">
+      <c r="B4" s="23"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="G4" s="26"/>
-      <c r="H4" s="26"/>
+      <c r="I4" s="23"/>
+      <c r="J4" s="23"/>
     </row>
-    <row r="5" spans="1:9" ht="18.3" x14ac:dyDescent="0.5">
-      <c r="A5" s="27" t="s">
+    <row r="5" spans="1:11" ht="18.3" x14ac:dyDescent="0.5">
+      <c r="A5" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="27"/>
-      <c r="C5" s="27"/>
-      <c r="D5" s="16" t="s">
+      <c r="B5" s="24"/>
+      <c r="C5" s="24"/>
+      <c r="D5" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="17"/>
-      <c r="F5" s="28" t="s">
+      <c r="E5" s="29"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="28"/>
+      <c r="H5" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="G5" s="28"/>
-      <c r="H5" s="16" t="s">
+      <c r="I5" s="25"/>
+      <c r="J5" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="I5" s="17"/>
+      <c r="K5" s="28"/>
     </row>
-    <row r="6" spans="1:9" ht="18.3" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:11" ht="18.3" x14ac:dyDescent="0.5">
       <c r="A6" s="18" t="s">
         <v>18</v>
       </c>
       <c r="B6" s="19"/>
       <c r="C6" s="19"/>
       <c r="D6" s="19"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="18" t="s">
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="G6" s="19"/>
-      <c r="H6" s="19"/>
-      <c r="I6" s="20"/>
+      <c r="I6" s="19"/>
+      <c r="J6" s="19"/>
+      <c r="K6" s="20"/>
     </row>
-    <row r="7" spans="1:9" ht="18.3" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:11" ht="18.3" x14ac:dyDescent="0.5">
       <c r="A7" s="4" t="s">
         <v>19</v>
       </c>
@@ -960,23 +989,29 @@
       <c r="D7" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E7" s="11" t="s">
+      <c r="E7" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="F7" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="G7" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="H7" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="G7" s="4" t="s">
+      <c r="I7" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="H7" s="4" t="s">
+      <c r="J7" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="I7" s="30" t="s">
+      <c r="K7" s="15" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A8" s="9" t="s">
         <v>13</v>
       </c>
@@ -989,59 +1024,69 @@
       <c r="D8" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="5"/>
-      <c r="F8" s="9" t="s">
+      <c r="E8" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G8" s="5"/>
+      <c r="H8" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="G8" s="10" t="s">
+      <c r="I8" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="H8" s="12" t="s">
+      <c r="J8" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="I8" s="29" t="s">
+      <c r="K8" s="14" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="18.3" x14ac:dyDescent="0.5">
-      <c r="A9" s="13" t="s">
+    <row r="9" spans="1:11" ht="18.3" x14ac:dyDescent="0.5">
+      <c r="A9" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="16" t="s">
+      <c r="B9" s="33"/>
+      <c r="C9" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="21"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="13" t="s">
+      <c r="D9" s="29"/>
+      <c r="E9" s="29"/>
+      <c r="F9" s="29"/>
+      <c r="G9" s="28"/>
+      <c r="H9" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="G9" s="14"/>
-      <c r="H9" s="16" t="s">
+      <c r="I9" s="33"/>
+      <c r="J9" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="I9" s="17"/>
+      <c r="K9" s="28"/>
     </row>
-    <row r="10" spans="1:9" ht="18.3" x14ac:dyDescent="0.5">
-      <c r="A10" s="22" t="s">
+    <row r="10" spans="1:11" ht="18.3" x14ac:dyDescent="0.5">
+      <c r="A10" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="23"/>
-      <c r="C10" s="16" t="s">
+      <c r="B10" s="31"/>
+      <c r="C10" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="21"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="6" t="s">
+      <c r="D10" s="29"/>
+      <c r="E10" s="29"/>
+      <c r="F10" s="29"/>
+      <c r="G10" s="28"/>
+      <c r="H10" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="G10" s="7"/>
-      <c r="H10" s="16" t="s">
+      <c r="I10" s="7"/>
+      <c r="J10" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="I10" s="17"/>
+      <c r="K10" s="28"/>
     </row>
-    <row r="11" spans="1:9" ht="18.3" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:11" ht="18.3" x14ac:dyDescent="0.5">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="3" t="s">
@@ -1051,30 +1096,32 @@
         <v>27</v>
       </c>
       <c r="E11" s="3"/>
-      <c r="F11" s="2"/>
+      <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="2"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="F4:H4"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="D5:G5"/>
+    <mergeCell ref="A6:G6"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="C10:G10"/>
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="A9:B9"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="A3:I3"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="A5:C5"/>
     <mergeCell ref="H5:I5"/>
-    <mergeCell ref="F6:I6"/>
-    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="A3:K3"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
